--- a/data/trans_bre/P25_9-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_9-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>6,19</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>680,98%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>227,6%</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>721,67%</t>
+          <t>601,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>237,37%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>659,95%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>622,93%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>132,9%</t>
         </is>
       </c>
     </row>
@@ -668,40 +720,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 11,35</t>
+          <t>1,42; 9,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 13,49</t>
+          <t>0,9; 12,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 17,23</t>
+          <t>0,38; 13,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 13,19</t>
+          <t>1,73; 10,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>2,56; 13,58</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 5,61</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-42,38; 1617,83</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-24,99; 1642,23</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>8,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>8,93</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>2,0</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>534,01%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>642,8%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>39,89%</t>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>384,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>317,57%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 13,42</t>
+          <t>4,42; 14,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,77</t>
+          <t>5,17; 12,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 11,95</t>
+          <t>4,98; 12,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 7,28</t>
+          <t>3,86; 15,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,33; —</t>
+          <t>-4,13; 6,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>2,82; 14,46</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>55,21; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-49,32; 307,98</t>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49,9; 2124,44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-51,45; 311,97</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21,13; 1637,31</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,34</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,23</t>
+          <t>10,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>11,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>19,02</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>10,83</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>394,14%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>318,79%</t>
+          <t>13,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>765,49%</t>
+          <t>369,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>396,34%</t>
+          <t>319,23%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>802,94%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>790,85%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>396,35%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>349,63%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 15,01</t>
+          <t>6,59; 15,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 14,3</t>
+          <t>4,85; 14,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 15,13</t>
+          <t>7,97; 15,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 15,43</t>
+          <t>14,29; 24,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>125,68; 1114,28</t>
+          <t>5,62; 15,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,18; 1054,15</t>
+          <t>6,89; 18,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>247,43; 2335,79</t>
+          <t>118,15; 1029,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>132,37; 1299,33</t>
+          <t>32,28; 1185,45</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>260,34; 2457,79</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>280,79; 2088,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>120,2; 1469,53</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>88,2; 963,71</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,04</t>
+          <t>15,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>17,97</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,64</t>
+          <t>18,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>22,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>12,62</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>357,64%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>472,16%</t>
+          <t>16,34</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>585,59%</t>
+          <t>358,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>168,89%</t>
+          <t>453,52%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>579,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>397,75%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>168,87%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>195,27%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 19,51</t>
+          <t>10,31; 20,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,65; 22,79</t>
+          <t>13,26; 23,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,98; 23,25</t>
+          <t>14,18; 23,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 19,25</t>
+          <t>16,44; 27,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>151,11; 780,21</t>
+          <t>6,17; 19,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>234,89; 905,52</t>
+          <t>9,89; 23,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>272,41; 1170,18</t>
+          <t>149,35; 763,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,83; 397,47</t>
+          <t>215,65; 916,47</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>280,76; 1316,2</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>190,7; 813,85</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48,9; 399,37</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>88,23; 427,88</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,28</t>
+          <t>15,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,03</t>
+          <t>14,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>14,99</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>14,61</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>205,28%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>194,59%</t>
+          <t>13,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>209,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>120,31%</t>
+          <t>186,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>84,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>109,1%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>120,35%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>77,32%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,52; 21,96</t>
+          <t>9,52; 23,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,18; 21,25</t>
+          <t>9,36; 21,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,18; 15,19</t>
+          <t>2,42; 14,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,66; 22,59</t>
+          <t>6,59; 22,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>85,6; 438,8</t>
+          <t>6,88; 21,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>85,06; 372,13</t>
+          <t>5,02; 21,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,54; 188,46</t>
+          <t>82,02; 456,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,08; 270,66</t>
+          <t>84,17; 348,25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,47; 185,84</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>40,58; 217,48</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>42,01; 251,41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>25,76; 168,14</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,45</t>
+          <t>18,66</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,65</t>
+          <t>17,19</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>18,81</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,22</t>
+          <t>22,85</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>112,57%</t>
+          <t>27,21</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>18,42</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>104,36%</t>
+          <t>111,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>170,65%</t>
+          <t>102,78%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>115,16%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>123,72%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>170,64%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>84,86%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,8; 27,14</t>
+          <t>8,63; 28,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,93; 24,89</t>
+          <t>7,75; 26,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 26,51</t>
+          <t>9,32; 27,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,52; 37,78</t>
+          <t>13,14; 34,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,68; 233,13</t>
+          <t>15,83; 38,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,58; 211,69</t>
+          <t>7,93; 29,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,56; 211,95</t>
+          <t>32,36; 232,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,71; 336,8</t>
+          <t>31,58; 211,12</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>41,59; 235,76</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>50,86; 248,46</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73,2; 327,23</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>27,41; 182,88</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,22</t>
+          <t>13,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,16</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,54</t>
+          <t>12,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>17,06</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>14,04</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>247,0%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>242,67%</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>251,47%</t>
+          <t>245,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>243,31%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>258,72%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>241,86%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>198,37%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>156,7%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,37; 15,83</t>
+          <t>10,86; 15,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,61; 15,51</t>
+          <t>10,46; 15,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,24; 15,07</t>
+          <t>10,32; 15,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,45</t>
+          <t>14,07; 19,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>153,37; 362,46</t>
+          <t>11,05; 17,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>150,92; 359,01</t>
+          <t>10,51; 16,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>166,52; 368,4</t>
+          <t>152,63; 360,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>127,01; 286,9</t>
+          <t>151,79; 346,49</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>162,06; 360,22</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>166,2; 329,97</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>127,79; 296,71</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>101,79; 229,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
